--- a/example-test-forms/B2p Project Assessment - New Site_DRAFT REVISIONS V3.xlsx
+++ b/example-test-forms/B2p Project Assessment - New Site_DRAFT REVISIONS V3.xlsx
@@ -916,7 +916,7 @@
     <t>a0RDp000000kzPlMAI</t>
   </si>
   <si>
-    <t>tw.community_information.form_record_type.value = "Project Assessment";</t>
+    <t>tw.community_information.form_record_type.value = ”Project Assessment”;</t>
   </si>
   <si>
     <t>var today = new Date(); tw.community_information_3.close_date.value=new Date(today.getFullYear(), 11, 31);</t>
